--- a/docs/德勤.xlsx
+++ b/docs/德勤.xlsx
@@ -5,14 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yan.zhou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects2\Deqin\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="目录" sheetId="2" r:id="rId1"/>
+    <sheet name="Employee" sheetId="1" r:id="rId2"/>
+    <sheet name="User" sheetId="3" r:id="rId3"/>
+    <sheet name="Role" sheetId="4" r:id="rId4"/>
+    <sheet name="Authority" sheetId="5" r:id="rId5"/>
+    <sheet name="RoleAuthority" sheetId="6" r:id="rId6"/>
+    <sheet name="Customer" sheetId="7" r:id="rId7"/>
+    <sheet name="Group" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +142,266 @@
   </si>
   <si>
     <t>InductionDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表，登陆信息相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerStock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeSalary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工收入表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作小组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleAuthority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对某一个权限点做增删改查区别权限的时候，使用这个值控制。0：全部权限，1：读，2：增，4：删，8：改，3=1+2=读+增。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理ID（员工ID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型，0：系统权限，1：数据权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +425,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,12 +443,53 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -181,8 +498,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,154 +797,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/德勤.xlsx
+++ b/docs/德勤.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Role" sheetId="4" r:id="rId4"/>
     <sheet name="Authority" sheetId="5" r:id="rId5"/>
     <sheet name="RoleAuthority" sheetId="6" r:id="rId6"/>
-    <sheet name="Customer" sheetId="7" r:id="rId7"/>
-    <sheet name="Group" sheetId="8" r:id="rId8"/>
+    <sheet name="Group" sheetId="8" r:id="rId7"/>
+    <sheet name="Customer" sheetId="7" r:id="rId8"/>
+    <sheet name="StockAccount" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +399,46 @@
   </si>
   <si>
     <t>权限类型，0：系统权限，1：数据权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerEId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组领导员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组父级组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工分组Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerEid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuturesFintheircing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuturesFintheircingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockAccountId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -978,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1135,6 +1172,20 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1171,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1182,7 +1233,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1194,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1211,7 +1262,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1221,7 +1272,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1267,10 +1318,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1279,25 +1330,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1306,7 +1357,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1323,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,10 +1402,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1363,54 +1414,54 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1451,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1459,10 +1510,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1472,15 +1523,15 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1488,29 +1539,29 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1519,16 +1570,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1539,15 +1590,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1569,10 +1621,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1581,58 +1633,73 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1642,15 +1709,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1672,10 +1741,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1684,58 +1753,197 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/德勤.xlsx
+++ b/docs/德勤.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects2\Deqin\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -21,8 +16,9 @@
     <sheet name="Group" sheetId="8" r:id="rId7"/>
     <sheet name="Customer" sheetId="7" r:id="rId8"/>
     <sheet name="StockAccount" sheetId="9" r:id="rId9"/>
+    <sheet name="EmployeeBonus" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="167">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,71 +70,515 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值：Boss，SalesManager，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobliePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdCardNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotherPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdCardImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表，登陆信息相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerStock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeSalary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工收入表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作小组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleAuthority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对某一个权限点做增删改查区别权限的时候，使用这个值控制。0：全部权限，1：读，2：增，4：删，8：改，3=1+2=读+增。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理ID（员工ID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型，0：系统权限，1：数据权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerEId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组领导员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组父级组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工分组Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerEid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccoutType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：股票账户，1：配资账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值：Boss，SalesManager，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobliePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IdCardNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FatherName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MotherName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FatherPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MotherPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IdCardImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary</t>
+    <t>账户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有资金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：普通客户，1：意向客户，1：已邮寄合同，2：签约客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json格式扩展信息{Stock:[123,233,444],Memo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工状态0：在职，1：离职</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,115 +586,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表，登陆信息相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerStock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeSalary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工收入表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkDiary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日志表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作小组表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dimission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleAuthority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>入职时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,75 +594,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthValue</t>
+    <t>Eid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底薪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicSalary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底薪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicSalary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,107 +654,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当对某一个权限点做增删改查区别权限的时候，使用这个值控制。0：全部权限，1：读，2：增，4：删，8：改，3=1+2=读+增。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户经理ID（员工ID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限类型，0：系统权限，1：数据权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerEId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组领导员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentGroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组父级组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工分组Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerEid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuturesFintheircing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuturesFintheircingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StockAccountId</t>
+    <t>0：提成奖金，1：年终奖金，2，特殊奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllocationAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockAllocationCommission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票提成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货提成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuturesDistributionCommission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuturesDistributionTradeCommission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货交易提成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如2015-08-31，表示奖金属于8月份的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,113 +1105,113 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -966,12 +1222,196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1003,7 +1443,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1015,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1026,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1036,15 +1476,15 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1054,12 +1494,12 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1069,7 +1509,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1079,7 +1519,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1089,10 +1529,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1101,10 +1541,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1113,10 +1553,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1125,7 +1565,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1135,7 +1575,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1145,7 +1585,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1155,7 +1595,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1165,26 +1605,78 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1230,10 +1722,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1245,12 +1737,12 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1262,7 +1754,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1272,7 +1764,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1318,10 +1810,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1330,25 +1822,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1357,7 +1849,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1402,10 +1894,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1414,54 +1906,54 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1502,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1510,10 +2002,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1523,15 +2015,15 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1539,29 +2031,29 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1570,16 +2062,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1621,10 +2113,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1633,72 +2125,72 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1709,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1741,10 +2233,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1753,76 +2245,112 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1832,15 +2360,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1862,10 +2392,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1874,76 +2404,132 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/德勤.xlsx
+++ b/docs/德勤.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10380" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="Employee" sheetId="1" r:id="rId2"/>
-    <sheet name="User" sheetId="3" r:id="rId3"/>
-    <sheet name="Role" sheetId="4" r:id="rId4"/>
-    <sheet name="Authority" sheetId="5" r:id="rId5"/>
-    <sheet name="RoleAuthority" sheetId="6" r:id="rId6"/>
-    <sheet name="Group" sheetId="8" r:id="rId7"/>
-    <sheet name="Customer" sheetId="7" r:id="rId8"/>
-    <sheet name="StockAccount" sheetId="9" r:id="rId9"/>
-    <sheet name="EmployeeBonus" sheetId="10" r:id="rId10"/>
+    <sheet name="EmployeeBonus" sheetId="10" r:id="rId3"/>
+    <sheet name="UserInfo" sheetId="3" r:id="rId4"/>
+    <sheet name="Role" sheetId="4" r:id="rId5"/>
+    <sheet name="Authority" sheetId="5" r:id="rId6"/>
+    <sheet name="RoleAuthority" sheetId="6" r:id="rId7"/>
+    <sheet name="Group" sheetId="8" r:id="rId8"/>
+    <sheet name="Customer" sheetId="7" r:id="rId9"/>
+    <sheet name="StockAccount" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EmployeeSalary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>员工收入表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,6 +691,10 @@
   </si>
   <si>
     <t>如2015-08-31，表示奖金属于8月份的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeBonus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1154,64 +1154,64 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -1224,19 +1224,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,155 +1251,149 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>146</v>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>146</v>
+      <c r="E7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E8" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="E10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1435,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1443,7 +1438,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1455,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1605,78 +1600,78 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1688,10 +1683,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1722,10 +1901,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1737,12 +1916,12 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1754,7 +1933,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1764,7 +1943,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1778,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1810,10 +1989,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1822,25 +2001,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1849,7 +2028,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1862,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1894,10 +2073,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1906,54 +2085,54 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1966,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1994,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2002,10 +2181,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2015,15 +2194,15 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2031,29 +2210,29 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2062,16 +2241,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -2113,10 +2292,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2125,72 +2304,72 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2233,10 +2412,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2245,291 +2424,112 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
